--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1559,7 +1559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>106</v>
       </c>
@@ -1569,13 +1569,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -2063,7 +2063,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>106</v>
       </c>
@@ -2073,13 +2073,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -367,6 +367,19 @@
   <si>
     <t xml:space="preserve">Period
 </t>
+  </si>
+  <si>
+    <t>sourceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-sourceId-extension}
+</t>
+  </si>
+  <si>
+    <t>BC SourceID and UserID</t>
+  </si>
+  <si>
+    <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
   </si>
   <si>
     <t>base64Binary
@@ -698,7 +711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2163,23 +2176,25 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -2188,24 +2203,22 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>75</v>
@@ -2247,27 +2260,27 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2275,10 +2288,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>75</v>
@@ -2290,22 +2303,24 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>75</v>
@@ -2347,10 +2362,10 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -2359,14 +2374,114 @@
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>105</v>
       </c>
     </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ16">
+  <autoFilter ref="A1:AJ17">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2376,7 +2491,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI15">
+  <conditionalFormatting sqref="A2:AI16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -365,8 +365,14 @@
     <t>businessDates</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}
 </t>
+  </si>
+  <si>
+    <t>BC Business Dates</t>
+  </si>
+  <si>
+    <t>The effective dates for the parent element.</t>
   </si>
   <si>
     <t>sourceID</t>
@@ -711,7 +717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1699,13 +1705,13 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1774,11 +1780,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>75</v>
       </c>
@@ -1790,7 +1798,7 @@
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -1799,13 +1807,13 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1856,27 +1864,27 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1884,10 +1892,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>75</v>
@@ -1899,22 +1907,24 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>75</v>
@@ -1944,39 +1954,39 @@
         <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1984,10 +1994,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -1999,24 +2009,22 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
@@ -2058,10 +2066,10 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -2070,418 +2078,14 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2491,7 +2095,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-death-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
